--- a/src/main/resources/excel-template.xlsx
+++ b/src/main/resources/excel-template.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s.butovetskaya/Бутовецкая Софья/ВГУ/Диплом/generation-gia-doc/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95E9CC8-0199-BA4D-B043-449CF3887F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FF15DB-5017-FD41-B516-F3D361474CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="15820" xr2:uid="{170BBCBB-52C3-BE49-A9A9-808409C4EDBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>№</t>
   </si>
@@ -76,7 +76,22 @@
     <t>внедрена</t>
   </si>
   <si>
-    <t>Дата защиты</t>
+    <t>Иванов Иван Иванович</t>
+  </si>
+  <si>
+    <t>Тема</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Оценка предзащита</t>
+  </si>
+  <si>
+    <t>1 предзащита</t>
+  </si>
+  <si>
+    <t>2 предзащита</t>
   </si>
 </sst>
 </file>
@@ -119,15 +134,16 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,25 +181,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,87 +530,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0555CA-1EE6-F14A-8BB3-2B885879770B}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="4" width="31.5" customWidth="1"/>
+    <col min="5" max="13" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" ht="124" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5">
+        <v>5</v>
+      </c>
+      <c r="M3" s="5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="124" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:H3"/>
+  <mergeCells count="8">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
